--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2405.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2405.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.055345837521659</v>
+        <v>1.175815343856812</v>
       </c>
       <c r="B1">
-        <v>2.202647616962071</v>
+        <v>2.216834306716919</v>
       </c>
       <c r="C1">
-        <v>9.233397466540573</v>
+        <v>4.500626564025879</v>
       </c>
       <c r="D1">
-        <v>1.857333753754016</v>
+        <v>2.660823106765747</v>
       </c>
       <c r="E1">
-        <v>0.9959335578783474</v>
+        <v>1.224990487098694</v>
       </c>
     </row>
   </sheetData>
